--- a/workingdata/error_predics.xlsx
+++ b/workingdata/error_predics.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericshannon/Documents/ncaa_predictions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericshannon/Documents/ncaa_predictions/workingdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1D281E-C54F-7A4B-9D4B-31063E74D73B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613B7893-622B-7440-9E14-5D87AA1AF2BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="480" windowWidth="12980" windowHeight="13300" activeTab="1" xr2:uid="{3631A22F-5DE8-4F4D-9E8A-2705B43EDF70}"/>
+    <workbookView xWindow="7900" yWindow="600" windowWidth="10000" windowHeight="13760" activeTab="2" xr2:uid="{3631A22F-5DE8-4F4D-9E8A-2705B43EDF70}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan19(61pct)" sheetId="1" r:id="rId1"/>
     <sheet name="Jan21(65pct)" sheetId="3" r:id="rId2"/>
+    <sheet name="Jan22(47pct)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="324">
   <si>
     <t>Home</t>
   </si>
@@ -968,6 +969,36 @@
   </si>
   <si>
     <t>Marist</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Florida State</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Eastern Michigan</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
+    <t>Saint Peter's</t>
   </si>
 </sst>
 </file>
@@ -3474,8 +3505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1976368E-125D-E94E-93E9-C65104DE4812}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3949,4 +3980,359 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDF4423-1E55-024A-85E0-88E05E41E0B0}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10">
+        <v>66</v>
+      </c>
+      <c r="D10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12">
+        <v>67</v>
+      </c>
+      <c r="D12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16">
+        <v>76</v>
+      </c>
+      <c r="D16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20">
+        <v>74</v>
+      </c>
+      <c r="D20">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22">
+        <v>77</v>
+      </c>
+      <c r="D22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24">
+        <v>72</v>
+      </c>
+      <c r="D24">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/workingdata/error_predics.xlsx
+++ b/workingdata/error_predics.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericshannon/Documents/ncaa_predictions/workingdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613B7893-622B-7440-9E14-5D87AA1AF2BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA24179-E44F-BD4C-8145-CE780AADA752}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="600" windowWidth="10000" windowHeight="13760" activeTab="2" xr2:uid="{3631A22F-5DE8-4F4D-9E8A-2705B43EDF70}"/>
+    <workbookView xWindow="7320" yWindow="1320" windowWidth="10000" windowHeight="13760" firstSheet="1" activeTab="3" xr2:uid="{3631A22F-5DE8-4F4D-9E8A-2705B43EDF70}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan19(61pct)" sheetId="1" r:id="rId1"/>
     <sheet name="Jan21(65pct)" sheetId="3" r:id="rId2"/>
     <sheet name="Jan22(47pct)" sheetId="4" r:id="rId3"/>
+    <sheet name="Jan23" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="342">
   <si>
     <t>Home</t>
   </si>
@@ -999,6 +1000,60 @@
   </si>
   <si>
     <t>Saint Peter's</t>
+  </si>
+  <si>
+    <t>East Carolina</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Saint Joseph's</t>
+  </si>
+  <si>
+    <t>Saint Louis</t>
+  </si>
+  <si>
+    <t>Duquesne</t>
+  </si>
+  <si>
+    <t>Maquette</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Southern Illinois</t>
+  </si>
+  <si>
+    <t>Missouri State</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
   </si>
 </sst>
 </file>
@@ -3986,8 +4041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDF4423-1E55-024A-85E0-88E05E41E0B0}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4335,4 +4390,653 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6C6588-F104-0540-BED5-75CB2F72467E}">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
+      <c r="D5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>62</v>
+      </c>
+      <c r="D8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>73</v>
+      </c>
+      <c r="D10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14">
+        <v>73</v>
+      </c>
+      <c r="D14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>61</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>70</v>
+      </c>
+      <c r="D16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17">
+        <v>69</v>
+      </c>
+      <c r="D17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C20">
+        <v>72</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21">
+        <v>71</v>
+      </c>
+      <c r="D21">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22">
+        <v>74</v>
+      </c>
+      <c r="D22">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23">
+        <v>75</v>
+      </c>
+      <c r="D23">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24">
+        <v>78</v>
+      </c>
+      <c r="D24">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25">
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s">
+        <v>335</v>
+      </c>
+      <c r="C26">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27">
+        <v>53</v>
+      </c>
+      <c r="D27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C28">
+        <v>66</v>
+      </c>
+      <c r="D28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C29">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" t="s">
+        <v>338</v>
+      </c>
+      <c r="C30">
+        <v>35</v>
+      </c>
+      <c r="D30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32">
+        <v>57</v>
+      </c>
+      <c r="D32">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34">
+        <v>47</v>
+      </c>
+      <c r="D34">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35">
+        <v>85</v>
+      </c>
+      <c r="D35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36">
+        <v>88</v>
+      </c>
+      <c r="D36">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>339</v>
+      </c>
+      <c r="B37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37">
+        <v>82</v>
+      </c>
+      <c r="D37">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>264</v>
+      </c>
+      <c r="B39" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39">
+        <v>78</v>
+      </c>
+      <c r="D39">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40">
+        <v>60</v>
+      </c>
+      <c r="D40">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>260</v>
+      </c>
+      <c r="B41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41">
+        <v>71</v>
+      </c>
+      <c r="D41">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42">
+        <v>70</v>
+      </c>
+      <c r="D42">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>257</v>
+      </c>
+      <c r="B43" t="s">
+        <v>340</v>
+      </c>
+      <c r="C43">
+        <v>81</v>
+      </c>
+      <c r="D43">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44">
+        <v>73</v>
+      </c>
+      <c r="D44">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>341</v>
+      </c>
+      <c r="B45" t="s">
+        <v>266</v>
+      </c>
+      <c r="C45">
+        <v>70</v>
+      </c>
+      <c r="D45">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/workingdata/error_predics.xlsx
+++ b/workingdata/error_predics.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericshannon/Documents/ncaa_predictions/workingdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA24179-E44F-BD4C-8145-CE780AADA752}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87432925-F898-B343-BA71-97FFDBF5FE0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="1320" windowWidth="10000" windowHeight="13760" firstSheet="1" activeTab="3" xr2:uid="{3631A22F-5DE8-4F4D-9E8A-2705B43EDF70}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="14820" firstSheet="2" activeTab="4" xr2:uid="{3631A22F-5DE8-4F4D-9E8A-2705B43EDF70}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan19(61pct)" sheetId="1" r:id="rId1"/>
     <sheet name="Jan21(65pct)" sheetId="3" r:id="rId2"/>
     <sheet name="Jan22(47pct)" sheetId="4" r:id="rId3"/>
-    <sheet name="Jan23" sheetId="5" r:id="rId4"/>
+    <sheet name="Jan23(60pct)" sheetId="5" r:id="rId4"/>
+    <sheet name="Jan24(68pct)" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="353">
   <si>
     <t>Home</t>
   </si>
@@ -1020,9 +1021,6 @@
     <t>Duquesne</t>
   </si>
   <si>
-    <t>Maquette</t>
-  </si>
-  <si>
     <t>Providence</t>
   </si>
   <si>
@@ -1054,6 +1052,42 @@
   </si>
   <si>
     <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>High Point</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>UC-Santa Barbara</t>
+  </si>
+  <si>
+    <t>Monmouth</t>
+  </si>
+  <si>
+    <t>Siena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairleigh Dickinson </t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Omaha</t>
+  </si>
+  <si>
+    <t>South Dakota State</t>
+  </si>
+  <si>
+    <t>California Baptist</t>
   </si>
 </sst>
 </file>
@@ -4396,8 +4430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6C6588-F104-0540-BED5-75CB2F72467E}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4635,7 +4669,7 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C17">
         <v>69</v>
@@ -4646,10 +4680,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" t="s">
         <v>331</v>
-      </c>
-      <c r="B18" t="s">
-        <v>332</v>
       </c>
       <c r="C18">
         <v>64</v>
@@ -4663,7 +4697,7 @@
         <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C19">
         <v>79</v>
@@ -4677,7 +4711,7 @@
         <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C20">
         <v>72</v>
@@ -4761,7 +4795,7 @@
         <v>173</v>
       </c>
       <c r="B26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C26">
         <v>68</v>
@@ -4789,7 +4823,7 @@
         <v>174</v>
       </c>
       <c r="B28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C28">
         <v>66</v>
@@ -4803,7 +4837,7 @@
         <v>177</v>
       </c>
       <c r="B29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C29">
         <v>62</v>
@@ -4817,7 +4851,7 @@
         <v>175</v>
       </c>
       <c r="B30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C30">
         <v>35</v>
@@ -4912,7 +4946,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s">
         <v>234</v>
@@ -4999,7 +5033,7 @@
         <v>257</v>
       </c>
       <c r="B43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C43">
         <v>81</v>
@@ -5024,7 +5058,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s">
         <v>266</v>
@@ -5034,6 +5068,1047 @@
       </c>
       <c r="D45">
         <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3CFE79-1476-1540-B765-61E12D27C52B}">
+  <dimension ref="A1:D73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>77</v>
+      </c>
+      <c r="D4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>86</v>
+      </c>
+      <c r="D7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>82</v>
+      </c>
+      <c r="D8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9">
+        <v>81</v>
+      </c>
+      <c r="D9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>93</v>
+      </c>
+      <c r="D10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15">
+        <v>73</v>
+      </c>
+      <c r="D15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>70</v>
+      </c>
+      <c r="D16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="D18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19">
+        <v>88</v>
+      </c>
+      <c r="D19">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20">
+        <v>82</v>
+      </c>
+      <c r="D20">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23">
+        <v>68</v>
+      </c>
+      <c r="D23">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24">
+        <v>66</v>
+      </c>
+      <c r="D24">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25">
+        <v>43</v>
+      </c>
+      <c r="D25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28">
+        <v>53</v>
+      </c>
+      <c r="D28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29">
+        <v>85</v>
+      </c>
+      <c r="D29">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30">
+        <v>72</v>
+      </c>
+      <c r="D30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31">
+        <v>88</v>
+      </c>
+      <c r="D31">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32">
+        <v>71</v>
+      </c>
+      <c r="D32">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33">
+        <v>65</v>
+      </c>
+      <c r="D33">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34">
+        <v>54</v>
+      </c>
+      <c r="D34">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35">
+        <v>67</v>
+      </c>
+      <c r="D35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>345</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36">
+        <v>66</v>
+      </c>
+      <c r="D36">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>346</v>
+      </c>
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37">
+        <v>57</v>
+      </c>
+      <c r="D37">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" t="s">
+        <v>347</v>
+      </c>
+      <c r="C39">
+        <v>58</v>
+      </c>
+      <c r="D39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40">
+        <v>72</v>
+      </c>
+      <c r="D40">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41">
+        <v>64</v>
+      </c>
+      <c r="D41">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42">
+        <v>83</v>
+      </c>
+      <c r="D42">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43">
+        <v>70</v>
+      </c>
+      <c r="D43">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44">
+        <v>61</v>
+      </c>
+      <c r="D44">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45">
+        <v>66</v>
+      </c>
+      <c r="D45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46">
+        <v>87</v>
+      </c>
+      <c r="D46">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47">
+        <v>74</v>
+      </c>
+      <c r="D47">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48">
+        <v>79</v>
+      </c>
+      <c r="D48">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49">
+        <v>61</v>
+      </c>
+      <c r="D49">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>348</v>
+      </c>
+      <c r="B50" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50">
+        <v>70</v>
+      </c>
+      <c r="D50">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51">
+        <v>57</v>
+      </c>
+      <c r="D51">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>349</v>
+      </c>
+      <c r="B52" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52">
+        <v>68</v>
+      </c>
+      <c r="D52">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53">
+        <v>77</v>
+      </c>
+      <c r="D53">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54">
+        <v>84</v>
+      </c>
+      <c r="D54">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" t="s">
+        <v>253</v>
+      </c>
+      <c r="C55">
+        <v>58</v>
+      </c>
+      <c r="D55">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>251</v>
+      </c>
+      <c r="B56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56">
+        <v>60</v>
+      </c>
+      <c r="D56">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>248</v>
+      </c>
+      <c r="B57" t="s">
+        <v>254</v>
+      </c>
+      <c r="C57">
+        <v>106</v>
+      </c>
+      <c r="D57">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>246</v>
+      </c>
+      <c r="B58" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58">
+        <v>68</v>
+      </c>
+      <c r="D58">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>350</v>
+      </c>
+      <c r="B59" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59">
+        <v>85</v>
+      </c>
+      <c r="D59">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>267</v>
+      </c>
+      <c r="B60" t="s">
+        <v>351</v>
+      </c>
+      <c r="C60">
+        <v>69</v>
+      </c>
+      <c r="D60">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>274</v>
+      </c>
+      <c r="C61">
+        <v>72</v>
+      </c>
+      <c r="D61">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>280</v>
+      </c>
+      <c r="B62" t="s">
+        <v>278</v>
+      </c>
+      <c r="C62">
+        <v>81</v>
+      </c>
+      <c r="D62">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>271</v>
+      </c>
+      <c r="B63" t="s">
+        <v>276</v>
+      </c>
+      <c r="C63">
+        <v>72</v>
+      </c>
+      <c r="D63">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C64">
+        <v>81</v>
+      </c>
+      <c r="D64">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>275</v>
+      </c>
+      <c r="B65" t="s">
+        <v>273</v>
+      </c>
+      <c r="C65">
+        <v>69</v>
+      </c>
+      <c r="D65">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>301</v>
+      </c>
+      <c r="B66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66">
+        <v>84</v>
+      </c>
+      <c r="D66">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" t="s">
+        <v>281</v>
+      </c>
+      <c r="C67">
+        <v>75</v>
+      </c>
+      <c r="D67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>288</v>
+      </c>
+      <c r="B68" t="s">
+        <v>285</v>
+      </c>
+      <c r="C68">
+        <v>75</v>
+      </c>
+      <c r="D68">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C69">
+        <v>88</v>
+      </c>
+      <c r="D69">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>289</v>
+      </c>
+      <c r="B70" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70">
+        <v>98</v>
+      </c>
+      <c r="D70">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>292</v>
+      </c>
+      <c r="B71" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71">
+        <v>58</v>
+      </c>
+      <c r="D71">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>290</v>
+      </c>
+      <c r="B72" t="s">
+        <v>298</v>
+      </c>
+      <c r="C72">
+        <v>61</v>
+      </c>
+      <c r="D72">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>294</v>
+      </c>
+      <c r="B73" t="s">
+        <v>297</v>
+      </c>
+      <c r="C73">
+        <v>66</v>
+      </c>
+      <c r="D73">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/workingdata/error_predics.xlsx
+++ b/workingdata/error_predics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericshannon/Documents/ncaa_predictions/workingdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87432925-F898-B343-BA71-97FFDBF5FE0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFCB336-33B6-7C41-A009-DC94FEEC406F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="14820" firstSheet="2" activeTab="4" xr2:uid="{3631A22F-5DE8-4F4D-9E8A-2705B43EDF70}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="14820" firstSheet="3" activeTab="5" xr2:uid="{3631A22F-5DE8-4F4D-9E8A-2705B43EDF70}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan19(61pct)" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Jan22(47pct)" sheetId="4" r:id="rId3"/>
     <sheet name="Jan23(60pct)" sheetId="5" r:id="rId4"/>
     <sheet name="Jan24(68pct)" sheetId="6" r:id="rId5"/>
+    <sheet name="Jan25(83pct)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="354">
   <si>
     <t>Home</t>
   </si>
@@ -1088,6 +1089,9 @@
   </si>
   <si>
     <t>California Baptist</t>
+  </si>
+  <si>
+    <t>Iona</t>
   </si>
 </sst>
 </file>
@@ -5079,8 +5083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3CFE79-1476-1540-B765-61E12D27C52B}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6114,4 +6118,117 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CF10D6-0055-AC4D-9752-97F0CEC378F5}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>69</v>
+      </c>
+      <c r="D2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3">
+        <v>88</v>
+      </c>
+      <c r="D3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4">
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5">
+        <v>92</v>
+      </c>
+      <c r="D5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/workingdata/error_predics.xlsx
+++ b/workingdata/error_predics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericshannon/Documents/ncaa_predictions/workingdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFCB336-33B6-7C41-A009-DC94FEEC406F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D7924F-AF92-2D44-8623-2D445B9AAB0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="14820" firstSheet="3" activeTab="5" xr2:uid="{3631A22F-5DE8-4F4D-9E8A-2705B43EDF70}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="10000" windowHeight="14820" firstSheet="4" activeTab="6" xr2:uid="{3631A22F-5DE8-4F4D-9E8A-2705B43EDF70}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan19(61pct)" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Jan23(60pct)" sheetId="5" r:id="rId4"/>
     <sheet name="Jan24(68pct)" sheetId="6" r:id="rId5"/>
     <sheet name="Jan25(83pct)" sheetId="7" r:id="rId6"/>
+    <sheet name="Jan26" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="359">
   <si>
     <t>Home</t>
   </si>
@@ -1092,13 +1093,28 @@
   </si>
   <si>
     <t>Iona</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Dartmouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army </t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Oral Roberts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1467,14 +1483,14 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1489,7 +1505,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1503,7 +1519,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1517,7 +1533,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1547,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1545,7 +1561,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1559,7 +1575,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1573,7 +1589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1587,7 +1603,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1601,7 +1617,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1615,7 +1631,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1629,7 +1645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1643,7 +1659,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1657,7 +1673,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1671,7 +1687,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1685,7 +1701,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1699,7 +1715,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1713,7 +1729,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1727,7 +1743,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1741,7 +1757,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1755,7 +1771,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1769,7 +1785,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1783,7 +1799,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1797,7 +1813,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1811,7 +1827,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1825,7 +1841,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1839,7 +1855,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1853,7 +1869,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1867,7 +1883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1881,7 +1897,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1895,7 +1911,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1909,7 +1925,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -1923,7 +1939,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1937,7 +1953,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>300</v>
       </c>
@@ -1951,7 +1967,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -1965,7 +1981,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1979,7 +1995,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -1993,7 +2009,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -2007,7 +2023,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -2021,7 +2037,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2035,7 +2051,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2049,7 +2065,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -2063,7 +2079,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -2077,7 +2093,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -2091,7 +2107,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -2105,7 +2121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -2119,7 +2135,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -2133,7 +2149,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2147,7 +2163,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -2161,7 +2177,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -2175,7 +2191,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>299</v>
       </c>
@@ -2189,7 +2205,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -2203,7 +2219,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -2217,7 +2233,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -2231,7 +2247,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -2245,7 +2261,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -2259,7 +2275,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>111</v>
       </c>
@@ -2273,7 +2289,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -2287,7 +2303,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -2301,7 +2317,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -2315,7 +2331,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>119</v>
       </c>
@@ -2329,7 +2345,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -2343,7 +2359,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -2357,7 +2373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -2371,7 +2387,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -2385,7 +2401,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -2399,7 +2415,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -2413,7 +2429,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -2427,7 +2443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>135</v>
       </c>
@@ -2441,7 +2457,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>137</v>
       </c>
@@ -2455,7 +2471,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>139</v>
       </c>
@@ -2469,7 +2485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>141</v>
       </c>
@@ -2483,7 +2499,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>143</v>
       </c>
@@ -2497,7 +2513,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2511,7 +2527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -2525,7 +2541,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -2539,7 +2555,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>151</v>
       </c>
@@ -2553,7 +2569,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>153</v>
       </c>
@@ -2567,7 +2583,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>155</v>
       </c>
@@ -2581,7 +2597,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>157</v>
       </c>
@@ -2595,7 +2611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>159</v>
       </c>
@@ -2609,7 +2625,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>161</v>
       </c>
@@ -2623,7 +2639,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -2637,7 +2653,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2651,7 +2667,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2665,7 +2681,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2679,7 +2695,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2693,7 +2709,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2707,7 +2723,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2721,7 +2737,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2735,7 +2751,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2749,7 +2765,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2763,7 +2779,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2777,7 +2793,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2791,7 +2807,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2805,7 +2821,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2819,7 +2835,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2833,7 +2849,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2847,7 +2863,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2861,7 +2877,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2875,7 +2891,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2889,7 +2905,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2903,7 +2919,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2917,7 +2933,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2931,7 +2947,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2945,7 +2961,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2959,7 +2975,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2973,7 +2989,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -2987,7 +3003,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -3001,7 +3017,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>217</v>
       </c>
@@ -3015,7 +3031,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -3029,7 +3045,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>221</v>
       </c>
@@ -3043,7 +3059,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>223</v>
       </c>
@@ -3057,7 +3073,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>225</v>
       </c>
@@ -3071,7 +3087,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -3085,7 +3101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -3099,7 +3115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -3113,7 +3129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -3127,7 +3143,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -3141,7 +3157,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -3155,7 +3171,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -3169,7 +3185,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -3183,7 +3199,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -3197,7 +3213,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -3211,7 +3227,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -3225,7 +3241,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -3239,7 +3255,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>251</v>
       </c>
@@ -3253,7 +3269,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>253</v>
       </c>
@@ -3267,7 +3283,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>255</v>
       </c>
@@ -3281,7 +3297,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>256</v>
       </c>
@@ -3295,7 +3311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -3309,7 +3325,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>260</v>
       </c>
@@ -3323,7 +3339,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -3337,7 +3353,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -3351,7 +3367,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>266</v>
       </c>
@@ -3365,7 +3381,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -3379,7 +3395,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -3393,7 +3409,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -3407,7 +3423,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>278</v>
       </c>
@@ -3421,7 +3437,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>276</v>
       </c>
@@ -3435,7 +3451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>274</v>
       </c>
@@ -3449,7 +3465,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>279</v>
       </c>
@@ -3463,7 +3479,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>281</v>
       </c>
@@ -3477,7 +3493,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>283</v>
       </c>
@@ -3491,7 +3507,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>285</v>
       </c>
@@ -3505,7 +3521,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>287</v>
       </c>
@@ -3519,7 +3535,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>289</v>
       </c>
@@ -3533,7 +3549,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>291</v>
       </c>
@@ -3547,7 +3563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>293</v>
       </c>
@@ -3561,7 +3577,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>295</v>
       </c>
@@ -3575,7 +3591,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>297</v>
       </c>
@@ -3602,13 +3618,13 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3622,7 +3638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -3636,7 +3652,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3650,7 +3666,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3664,7 +3680,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3678,7 +3694,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3692,7 +3708,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -3706,7 +3722,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -3720,7 +3736,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>305</v>
       </c>
@@ -3734,7 +3750,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -3748,7 +3764,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -3762,7 +3778,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -3776,7 +3792,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -3790,7 +3806,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>308</v>
       </c>
@@ -3804,7 +3820,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>310</v>
       </c>
@@ -3818,7 +3834,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -3832,7 +3848,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -3846,7 +3862,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>312</v>
       </c>
@@ -3860,7 +3876,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>153</v>
       </c>
@@ -3874,7 +3890,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -3888,7 +3904,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>155</v>
       </c>
@@ -3902,7 +3918,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>157</v>
       </c>
@@ -3916,7 +3932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -3930,7 +3946,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>313</v>
       </c>
@@ -3944,7 +3960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -3958,7 +3974,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -3972,7 +3988,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>181</v>
       </c>
@@ -3986,7 +4002,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>186</v>
       </c>
@@ -4000,7 +4016,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>179</v>
       </c>
@@ -4014,7 +4030,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>243</v>
       </c>
@@ -4028,7 +4044,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>237</v>
       </c>
@@ -4042,7 +4058,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>241</v>
       </c>
@@ -4056,7 +4072,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -4083,13 +4099,13 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4103,7 +4119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4117,7 +4133,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -4131,7 +4147,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4145,7 +4161,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>314</v>
       </c>
@@ -4159,7 +4175,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -4173,7 +4189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -4187,7 +4203,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>316</v>
       </c>
@@ -4201,7 +4217,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -4215,7 +4231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -4229,7 +4245,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>318</v>
       </c>
@@ -4243,7 +4259,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -4257,7 +4273,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -4271,7 +4287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -4285,7 +4301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>320</v>
       </c>
@@ -4299,7 +4315,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -4313,7 +4329,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>166</v>
       </c>
@@ -4327,7 +4343,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -4341,7 +4357,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>322</v>
       </c>
@@ -4355,7 +4371,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>323</v>
       </c>
@@ -4369,7 +4385,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>227</v>
       </c>
@@ -4383,7 +4399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>224</v>
       </c>
@@ -4397,7 +4413,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -4411,7 +4427,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>232</v>
       </c>
@@ -4438,13 +4454,13 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4458,7 +4474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -4472,7 +4488,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -4486,7 +4502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -4500,7 +4516,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -4514,7 +4530,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>325</v>
       </c>
@@ -4528,7 +4544,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4542,7 +4558,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>326</v>
       </c>
@@ -4556,7 +4572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4570,7 +4586,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4584,7 +4600,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -4598,7 +4614,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4612,7 +4628,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -4626,7 +4642,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>328</v>
       </c>
@@ -4640,7 +4656,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -4654,7 +4670,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -4668,7 +4684,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -4682,7 +4698,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>330</v>
       </c>
@@ -4696,7 +4712,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -4710,7 +4726,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -4724,7 +4740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -4738,7 +4754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -4752,7 +4768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -4766,7 +4782,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -4780,7 +4796,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>169</v>
       </c>
@@ -4794,7 +4810,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>173</v>
       </c>
@@ -4808,7 +4824,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>178</v>
       </c>
@@ -4822,7 +4838,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -4836,7 +4852,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -4850,7 +4866,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>175</v>
       </c>
@@ -4864,7 +4880,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>218</v>
       </c>
@@ -4878,7 +4894,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>214</v>
       </c>
@@ -4892,7 +4908,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>213</v>
       </c>
@@ -4906,7 +4922,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>217</v>
       </c>
@@ -4920,7 +4936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>212</v>
       </c>
@@ -4934,7 +4950,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>222</v>
       </c>
@@ -4948,7 +4964,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>338</v>
       </c>
@@ -4962,7 +4978,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>231</v>
       </c>
@@ -4976,7 +4992,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>264</v>
       </c>
@@ -4990,7 +5006,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>263</v>
       </c>
@@ -5004,7 +5020,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>260</v>
       </c>
@@ -5018,7 +5034,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>255</v>
       </c>
@@ -5032,7 +5048,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>257</v>
       </c>
@@ -5046,7 +5062,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>258</v>
       </c>
@@ -5060,7 +5076,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>340</v>
       </c>
@@ -5087,13 +5103,13 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5107,7 +5123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -5121,7 +5137,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -5135,7 +5151,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5149,7 +5165,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>302</v>
       </c>
@@ -5163,7 +5179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5177,7 +5193,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5191,7 +5207,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5205,7 +5221,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5219,7 +5235,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -5233,7 +5249,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -5247,7 +5263,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>307</v>
       </c>
@@ -5261,7 +5277,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -5275,7 +5291,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -5289,7 +5305,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -5303,7 +5319,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -5317,7 +5333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>342</v>
       </c>
@@ -5331,7 +5347,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -5345,7 +5361,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -5359,7 +5375,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -5373,7 +5389,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>344</v>
       </c>
@@ -5387,7 +5403,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -5401,7 +5417,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -5415,7 +5431,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -5429,7 +5445,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -5443,7 +5459,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -5457,7 +5473,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -5471,7 +5487,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -5485,7 +5501,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -5499,7 +5515,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -5513,7 +5529,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -5527,7 +5543,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -5541,7 +5557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -5555,7 +5571,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>128</v>
       </c>
@@ -5569,7 +5585,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>132</v>
       </c>
@@ -5583,7 +5599,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>345</v>
       </c>
@@ -5597,7 +5613,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>346</v>
       </c>
@@ -5611,7 +5627,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -5625,7 +5641,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -5639,7 +5655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -5653,7 +5669,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -5667,7 +5683,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -5681,7 +5697,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -5695,7 +5711,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>197</v>
       </c>
@@ -5709,7 +5725,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>190</v>
       </c>
@@ -5723,7 +5739,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>200</v>
       </c>
@@ -5737,7 +5753,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -5751,7 +5767,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -5765,7 +5781,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>206</v>
       </c>
@@ -5779,7 +5795,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>348</v>
       </c>
@@ -5793,7 +5809,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>208</v>
       </c>
@@ -5807,7 +5823,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>349</v>
       </c>
@@ -5821,7 +5837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>202</v>
       </c>
@@ -5835,7 +5851,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>210</v>
       </c>
@@ -5849,7 +5865,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>252</v>
       </c>
@@ -5863,7 +5879,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>251</v>
       </c>
@@ -5877,7 +5893,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>248</v>
       </c>
@@ -5891,7 +5907,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>246</v>
       </c>
@@ -5905,7 +5921,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>350</v>
       </c>
@@ -5919,7 +5935,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>267</v>
       </c>
@@ -5933,7 +5949,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>277</v>
       </c>
@@ -5947,7 +5963,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>280</v>
       </c>
@@ -5961,7 +5977,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>271</v>
       </c>
@@ -5975,7 +5991,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>270</v>
       </c>
@@ -5989,7 +6005,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>275</v>
       </c>
@@ -6003,7 +6019,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>301</v>
       </c>
@@ -6017,7 +6033,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>284</v>
       </c>
@@ -6031,7 +6047,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -6045,7 +6061,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>286</v>
       </c>
@@ -6059,7 +6075,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>289</v>
       </c>
@@ -6073,7 +6089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>292</v>
       </c>
@@ -6087,7 +6103,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>290</v>
       </c>
@@ -6101,7 +6117,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>294</v>
       </c>
@@ -6124,13 +6140,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CF10D6-0055-AC4D-9752-97F0CEC378F5}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6144,7 +6160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -6158,7 +6174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>318</v>
       </c>
@@ -6172,7 +6188,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -6186,7 +6202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -6200,7 +6216,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -6214,7 +6230,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -6226,6 +6242,2055 @@
       </c>
       <c r="D7">
         <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CA954D-4685-E747-BEF8-201635681934}">
+  <dimension ref="A1:D145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="102" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2">
+        <v>77</v>
+      </c>
+      <c r="D2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>66</v>
+      </c>
+      <c r="D11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>77</v>
+      </c>
+      <c r="D13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>73</v>
+      </c>
+      <c r="D14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>66</v>
+      </c>
+      <c r="D18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20">
+        <v>78</v>
+      </c>
+      <c r="D20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21">
+        <v>66</v>
+      </c>
+      <c r="D21">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>64</v>
+      </c>
+      <c r="D23">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24">
+        <v>87</v>
+      </c>
+      <c r="D24">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27">
+        <v>88</v>
+      </c>
+      <c r="D27">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>70</v>
+      </c>
+      <c r="D28">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29">
+        <v>53</v>
+      </c>
+      <c r="D29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>341</v>
+      </c>
+      <c r="B31" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31">
+        <v>87</v>
+      </c>
+      <c r="D31">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>307</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32">
+        <v>84</v>
+      </c>
+      <c r="D32">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34">
+        <v>68</v>
+      </c>
+      <c r="D34">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35">
+        <v>53</v>
+      </c>
+      <c r="D35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C36">
+        <v>94</v>
+      </c>
+      <c r="D36">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37">
+        <v>91</v>
+      </c>
+      <c r="D37">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39">
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40">
+        <v>58</v>
+      </c>
+      <c r="D40">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>342</v>
+      </c>
+      <c r="C41">
+        <v>61</v>
+      </c>
+      <c r="D41">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>333</v>
+      </c>
+      <c r="B42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C42">
+        <v>78</v>
+      </c>
+      <c r="D42">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>332</v>
+      </c>
+      <c r="B43" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43">
+        <v>70</v>
+      </c>
+      <c r="D43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>317</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44">
+        <v>46</v>
+      </c>
+      <c r="D44">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>311</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45">
+        <v>64</v>
+      </c>
+      <c r="D45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46">
+        <v>80</v>
+      </c>
+      <c r="D46">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>344</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47">
+        <v>82</v>
+      </c>
+      <c r="D47">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48">
+        <v>62</v>
+      </c>
+      <c r="D48">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49">
+        <v>60</v>
+      </c>
+      <c r="D49">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50">
+        <v>73</v>
+      </c>
+      <c r="D50">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53">
+        <v>53</v>
+      </c>
+      <c r="D53">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>299</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54">
+        <v>89</v>
+      </c>
+      <c r="D54">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55">
+        <v>89</v>
+      </c>
+      <c r="D55">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56">
+        <v>53</v>
+      </c>
+      <c r="D56">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57">
+        <v>75</v>
+      </c>
+      <c r="D57">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58">
+        <v>84</v>
+      </c>
+      <c r="D58">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59">
+        <v>59</v>
+      </c>
+      <c r="D59">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60">
+        <v>78</v>
+      </c>
+      <c r="D60">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61">
+        <v>89</v>
+      </c>
+      <c r="D61">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62">
+        <v>65</v>
+      </c>
+      <c r="D62">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63">
+        <v>80</v>
+      </c>
+      <c r="D63">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65">
+        <v>60</v>
+      </c>
+      <c r="D65">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66">
+        <v>75</v>
+      </c>
+      <c r="D66">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" t="s">
+        <v>312</v>
+      </c>
+      <c r="C67">
+        <v>59</v>
+      </c>
+      <c r="D67">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68">
+        <v>70</v>
+      </c>
+      <c r="D68">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" t="s">
+        <v>321</v>
+      </c>
+      <c r="C69">
+        <v>74</v>
+      </c>
+      <c r="D69">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70">
+        <v>53</v>
+      </c>
+      <c r="D70">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71">
+        <v>65</v>
+      </c>
+      <c r="D71">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>319</v>
+      </c>
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72">
+        <v>93</v>
+      </c>
+      <c r="D72">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" t="s">
+        <v>320</v>
+      </c>
+      <c r="C73">
+        <v>72</v>
+      </c>
+      <c r="D73">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74">
+        <v>72</v>
+      </c>
+      <c r="D74">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76">
+        <v>71</v>
+      </c>
+      <c r="D76">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77">
+        <v>51</v>
+      </c>
+      <c r="D77">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78">
+        <v>88</v>
+      </c>
+      <c r="D78">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79">
+        <v>60</v>
+      </c>
+      <c r="D79">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80">
+        <v>52</v>
+      </c>
+      <c r="D80">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81">
+        <v>65</v>
+      </c>
+      <c r="D81">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82">
+        <v>68</v>
+      </c>
+      <c r="D82">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" t="s">
+        <v>322</v>
+      </c>
+      <c r="C83">
+        <v>77</v>
+      </c>
+      <c r="D83">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84">
+        <v>73</v>
+      </c>
+      <c r="D84">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>345</v>
+      </c>
+      <c r="B85" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85">
+        <v>48</v>
+      </c>
+      <c r="D85">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86" t="s">
+        <v>346</v>
+      </c>
+      <c r="C86">
+        <v>40</v>
+      </c>
+      <c r="D86">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>334</v>
+      </c>
+      <c r="B87" t="s">
+        <v>337</v>
+      </c>
+      <c r="C87">
+        <v>37</v>
+      </c>
+      <c r="D87">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88">
+        <v>74</v>
+      </c>
+      <c r="D88">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>335</v>
+      </c>
+      <c r="B89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89">
+        <v>70</v>
+      </c>
+      <c r="D89">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90">
+        <v>84</v>
+      </c>
+      <c r="D90">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91">
+        <v>78</v>
+      </c>
+      <c r="D91">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92">
+        <v>74</v>
+      </c>
+      <c r="D92">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93">
+        <v>51</v>
+      </c>
+      <c r="D93">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94">
+        <v>78</v>
+      </c>
+      <c r="D94">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95">
+        <v>77</v>
+      </c>
+      <c r="D95">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96">
+        <v>96</v>
+      </c>
+      <c r="D96">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97">
+        <v>69</v>
+      </c>
+      <c r="D97">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98">
+        <v>59</v>
+      </c>
+      <c r="D98">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99">
+        <v>91</v>
+      </c>
+      <c r="D99">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100">
+        <v>62</v>
+      </c>
+      <c r="D100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101">
+        <v>79</v>
+      </c>
+      <c r="D101">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>348</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102">
+        <v>82</v>
+      </c>
+      <c r="D102">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>349</v>
+      </c>
+      <c r="B103" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103">
+        <v>62</v>
+      </c>
+      <c r="D103">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104">
+        <v>67</v>
+      </c>
+      <c r="D104">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105">
+        <v>69</v>
+      </c>
+      <c r="D105">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106">
+        <v>72</v>
+      </c>
+      <c r="D106">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>356</v>
+      </c>
+      <c r="B107" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107">
+        <v>69</v>
+      </c>
+      <c r="D107">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>212</v>
+      </c>
+      <c r="C108">
+        <v>78</v>
+      </c>
+      <c r="D108">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>214</v>
+      </c>
+      <c r="C109">
+        <v>64</v>
+      </c>
+      <c r="D109">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110">
+        <v>68</v>
+      </c>
+      <c r="D110">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>224</v>
+      </c>
+      <c r="B111" t="s">
+        <v>227</v>
+      </c>
+      <c r="C111">
+        <v>84</v>
+      </c>
+      <c r="D111">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112">
+        <v>86</v>
+      </c>
+      <c r="D112">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>238</v>
+      </c>
+      <c r="B113" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113">
+        <v>89</v>
+      </c>
+      <c r="D113">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" t="s">
+        <v>235</v>
+      </c>
+      <c r="C114">
+        <v>59</v>
+      </c>
+      <c r="D114">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>237</v>
+      </c>
+      <c r="B115" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115">
+        <v>65</v>
+      </c>
+      <c r="D115">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>242</v>
+      </c>
+      <c r="B116" t="s">
+        <v>236</v>
+      </c>
+      <c r="C116">
+        <v>62</v>
+      </c>
+      <c r="D116">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>244</v>
+      </c>
+      <c r="B117" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117">
+        <v>86</v>
+      </c>
+      <c r="D117">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118">
+        <v>82</v>
+      </c>
+      <c r="D118">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>248</v>
+      </c>
+      <c r="B119" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119">
+        <v>75</v>
+      </c>
+      <c r="D119">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>247</v>
+      </c>
+      <c r="B120" t="s">
+        <v>249</v>
+      </c>
+      <c r="C120">
+        <v>81</v>
+      </c>
+      <c r="D120">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>250</v>
+      </c>
+      <c r="B121" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121">
+        <v>91</v>
+      </c>
+      <c r="D121">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>252</v>
+      </c>
+      <c r="B122" t="s">
+        <v>254</v>
+      </c>
+      <c r="C122">
+        <v>69</v>
+      </c>
+      <c r="D122">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>260</v>
+      </c>
+      <c r="B123" t="s">
+        <v>257</v>
+      </c>
+      <c r="C123">
+        <v>61</v>
+      </c>
+      <c r="D123">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>265</v>
+      </c>
+      <c r="B124" t="s">
+        <v>303</v>
+      </c>
+      <c r="C124">
+        <v>73</v>
+      </c>
+      <c r="D124">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>255</v>
+      </c>
+      <c r="B125" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125">
+        <v>69</v>
+      </c>
+      <c r="D125">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>259</v>
+      </c>
+      <c r="B126" t="s">
+        <v>263</v>
+      </c>
+      <c r="C126">
+        <v>56</v>
+      </c>
+      <c r="D126">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>339</v>
+      </c>
+      <c r="B127" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127">
+        <v>59</v>
+      </c>
+      <c r="D127">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>269</v>
+      </c>
+      <c r="B128" t="s">
+        <v>340</v>
+      </c>
+      <c r="C128">
+        <v>65</v>
+      </c>
+      <c r="D128">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>350</v>
+      </c>
+      <c r="B129" t="s">
+        <v>351</v>
+      </c>
+      <c r="C129">
+        <v>73</v>
+      </c>
+      <c r="D129">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>357</v>
+      </c>
+      <c r="B130" t="s">
+        <v>268</v>
+      </c>
+      <c r="C130">
+        <v>81</v>
+      </c>
+      <c r="D130">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" t="s">
+        <v>358</v>
+      </c>
+      <c r="C131">
+        <v>67</v>
+      </c>
+      <c r="D131">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>277</v>
+      </c>
+      <c r="B132" t="s">
+        <v>278</v>
+      </c>
+      <c r="C132">
+        <v>71</v>
+      </c>
+      <c r="D132">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>301</v>
+      </c>
+      <c r="B133" t="s">
+        <v>273</v>
+      </c>
+      <c r="C133">
+        <v>78</v>
+      </c>
+      <c r="D133">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>270</v>
+      </c>
+      <c r="B134" t="s">
+        <v>276</v>
+      </c>
+      <c r="C134">
+        <v>77</v>
+      </c>
+      <c r="D134">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" t="s">
+        <v>279</v>
+      </c>
+      <c r="C135">
+        <v>77</v>
+      </c>
+      <c r="D135">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>280</v>
+      </c>
+      <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136">
+        <v>58</v>
+      </c>
+      <c r="D136">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" t="s">
+        <v>272</v>
+      </c>
+      <c r="C137">
+        <v>81</v>
+      </c>
+      <c r="D137">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>284</v>
+      </c>
+      <c r="B138" t="s">
+        <v>285</v>
+      </c>
+      <c r="C138">
+        <v>74</v>
+      </c>
+      <c r="D138">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>288</v>
+      </c>
+      <c r="B139" t="s">
+        <v>281</v>
+      </c>
+      <c r="C139">
+        <v>54</v>
+      </c>
+      <c r="D139">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>283</v>
+      </c>
+      <c r="B140" t="s">
+        <v>287</v>
+      </c>
+      <c r="C140">
+        <v>63</v>
+      </c>
+      <c r="D140">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>282</v>
+      </c>
+      <c r="B141" t="s">
+        <v>352</v>
+      </c>
+      <c r="C141">
+        <v>90</v>
+      </c>
+      <c r="D141">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>290</v>
+      </c>
+      <c r="B142" t="s">
+        <v>296</v>
+      </c>
+      <c r="C142">
+        <v>70</v>
+      </c>
+      <c r="D142">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>294</v>
+      </c>
+      <c r="B143" t="s">
+        <v>291</v>
+      </c>
+      <c r="C143">
+        <v>77</v>
+      </c>
+      <c r="D143">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>292</v>
+      </c>
+      <c r="B144" t="s">
+        <v>295</v>
+      </c>
+      <c r="C144">
+        <v>69</v>
+      </c>
+      <c r="D144">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>298</v>
+      </c>
+      <c r="B145" t="s">
+        <v>293</v>
+      </c>
+      <c r="C145">
+        <v>63</v>
+      </c>
+      <c r="D145">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/workingdata/error_predics.xlsx
+++ b/workingdata/error_predics.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericshannon/Documents/ncaa_predictions/workingdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D7924F-AF92-2D44-8623-2D445B9AAB0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A03266-B00E-0143-90CC-AEBFD94FA899}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="10000" windowHeight="14820" firstSheet="4" activeTab="6" xr2:uid="{3631A22F-5DE8-4F4D-9E8A-2705B43EDF70}"/>
+    <workbookView xWindow="-100" yWindow="460" windowWidth="10000" windowHeight="14820" firstSheet="7" activeTab="10" xr2:uid="{3631A22F-5DE8-4F4D-9E8A-2705B43EDF70}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan19(61pct)" sheetId="1" r:id="rId1"/>
     <sheet name="Jan21(65pct)" sheetId="3" r:id="rId2"/>
     <sheet name="Jan22(47pct)" sheetId="4" r:id="rId3"/>
-    <sheet name="Jan23(60pct)" sheetId="5" r:id="rId4"/>
-    <sheet name="Jan24(68pct)" sheetId="6" r:id="rId5"/>
-    <sheet name="Jan25(83pct)" sheetId="7" r:id="rId6"/>
+    <sheet name="Jan23" sheetId="5" r:id="rId4"/>
+    <sheet name="Jan24" sheetId="6" r:id="rId5"/>
+    <sheet name="Jan25" sheetId="7" r:id="rId6"/>
     <sheet name="Jan26" sheetId="8" r:id="rId7"/>
+    <sheet name="Jan27" sheetId="9" r:id="rId8"/>
+    <sheet name="Jan28" sheetId="10" r:id="rId9"/>
+    <sheet name="Jan29" sheetId="11" r:id="rId10"/>
+    <sheet name="Jan30" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="367">
   <si>
     <t>Home</t>
   </si>
@@ -1108,13 +1112,37 @@
   </si>
   <si>
     <t>Oral Roberts</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>St John's (NY)</t>
+  </si>
+  <si>
+    <t>Wesley</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>Massachusettes</t>
+  </si>
+  <si>
+    <t>Norwestern State</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1483,14 +1511,14 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1505,7 +1533,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1519,7 +1547,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1533,7 +1561,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1547,7 +1575,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1561,7 +1589,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1575,7 +1603,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1589,7 +1617,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1603,7 +1631,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1617,7 +1645,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1631,7 +1659,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1645,7 +1673,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1659,7 +1687,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1673,7 +1701,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1687,7 +1715,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1701,7 +1729,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1715,7 +1743,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1729,7 +1757,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1743,7 +1771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1757,7 +1785,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1771,7 +1799,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1785,7 +1813,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1799,7 +1827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1813,7 +1841,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1827,7 +1855,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1841,7 +1869,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1855,7 +1883,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1869,7 +1897,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1883,7 +1911,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1897,7 +1925,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1911,7 +1939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1925,7 +1953,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -1939,7 +1967,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1953,7 +1981,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>300</v>
       </c>
@@ -1967,7 +1995,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -1981,7 +2009,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1995,7 +2023,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2009,7 +2037,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -2023,7 +2051,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -2037,7 +2065,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2051,7 +2079,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2065,7 +2093,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -2079,7 +2107,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -2093,7 +2121,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -2107,7 +2135,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -2121,7 +2149,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -2135,7 +2163,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -2149,7 +2177,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2163,7 +2191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -2177,7 +2205,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -2191,7 +2219,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>299</v>
       </c>
@@ -2205,7 +2233,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -2219,7 +2247,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -2233,7 +2261,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -2247,7 +2275,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -2261,7 +2289,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -2275,7 +2303,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>111</v>
       </c>
@@ -2289,7 +2317,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -2303,7 +2331,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -2317,7 +2345,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -2331,7 +2359,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>119</v>
       </c>
@@ -2345,7 +2373,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -2359,7 +2387,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -2373,7 +2401,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -2387,7 +2415,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -2401,7 +2429,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -2415,7 +2443,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -2429,7 +2457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -2443,7 +2471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>135</v>
       </c>
@@ -2457,7 +2485,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>137</v>
       </c>
@@ -2471,7 +2499,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>139</v>
       </c>
@@ -2485,7 +2513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>141</v>
       </c>
@@ -2499,7 +2527,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>143</v>
       </c>
@@ -2513,7 +2541,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2527,7 +2555,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -2541,7 +2569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -2555,7 +2583,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>151</v>
       </c>
@@ -2569,7 +2597,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>153</v>
       </c>
@@ -2583,7 +2611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>155</v>
       </c>
@@ -2597,7 +2625,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>157</v>
       </c>
@@ -2611,7 +2639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>159</v>
       </c>
@@ -2625,7 +2653,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>161</v>
       </c>
@@ -2639,7 +2667,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -2653,7 +2681,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -2667,7 +2695,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -2681,7 +2709,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -2695,7 +2723,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2709,7 +2737,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2723,7 +2751,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2737,7 +2765,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -2751,7 +2779,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -2765,7 +2793,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -2779,7 +2807,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -2793,7 +2821,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -2807,7 +2835,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2821,7 +2849,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2835,7 +2863,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -2849,7 +2877,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2863,7 +2891,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -2877,7 +2905,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -2891,7 +2919,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -2905,7 +2933,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -2919,7 +2947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -2933,7 +2961,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -2947,7 +2975,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -2961,7 +2989,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2975,7 +3003,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -2989,7 +3017,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -3003,7 +3031,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -3017,7 +3045,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>217</v>
       </c>
@@ -3031,7 +3059,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -3045,7 +3073,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>221</v>
       </c>
@@ -3059,7 +3087,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>223</v>
       </c>
@@ -3073,7 +3101,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>225</v>
       </c>
@@ -3087,7 +3115,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -3101,7 +3129,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -3115,7 +3143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -3129,7 +3157,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -3143,7 +3171,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -3157,7 +3185,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -3171,7 +3199,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -3185,7 +3213,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -3199,7 +3227,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -3213,7 +3241,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -3227,7 +3255,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -3241,7 +3269,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -3255,7 +3283,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>251</v>
       </c>
@@ -3269,7 +3297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>253</v>
       </c>
@@ -3283,7 +3311,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>255</v>
       </c>
@@ -3297,7 +3325,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>256</v>
       </c>
@@ -3311,7 +3339,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -3325,7 +3353,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>260</v>
       </c>
@@ -3339,7 +3367,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -3353,7 +3381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -3367,7 +3395,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>266</v>
       </c>
@@ -3381,7 +3409,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -3395,7 +3423,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -3409,7 +3437,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -3423,7 +3451,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>278</v>
       </c>
@@ -3437,7 +3465,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>276</v>
       </c>
@@ -3451,7 +3479,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>274</v>
       </c>
@@ -3465,7 +3493,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>279</v>
       </c>
@@ -3479,7 +3507,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>281</v>
       </c>
@@ -3493,7 +3521,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>283</v>
       </c>
@@ -3507,7 +3535,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>285</v>
       </c>
@@ -3521,7 +3549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>287</v>
       </c>
@@ -3535,7 +3563,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>289</v>
       </c>
@@ -3549,7 +3577,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>291</v>
       </c>
@@ -3563,7 +3591,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>293</v>
       </c>
@@ -3577,7 +3605,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>295</v>
       </c>
@@ -3591,7 +3619,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>297</v>
       </c>
@@ -3603,6 +3631,814 @@
       </c>
       <c r="D151">
         <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E24F1F-D3BB-414A-AE1E-15881E15F00D}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>66</v>
+      </c>
+      <c r="D2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>77</v>
+      </c>
+      <c r="D3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4">
+        <v>69</v>
+      </c>
+      <c r="D4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10">
+        <v>62</v>
+      </c>
+      <c r="D10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13">
+        <v>82</v>
+      </c>
+      <c r="D13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14">
+        <v>66</v>
+      </c>
+      <c r="D14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15">
+        <v>87</v>
+      </c>
+      <c r="D15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16">
+        <v>70</v>
+      </c>
+      <c r="D16">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18">
+        <v>92</v>
+      </c>
+      <c r="D18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19">
+        <v>87</v>
+      </c>
+      <c r="D19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20">
+        <v>79</v>
+      </c>
+      <c r="D20">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>363</v>
+      </c>
+      <c r="B22" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CCC3C5-57D9-1443-B85B-B58636A472C8}">
+  <dimension ref="A1:D57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>342</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>265</v>
+      </c>
+      <c r="B52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>366</v>
+      </c>
+      <c r="B53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>339</v>
+      </c>
+      <c r="B54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>340</v>
+      </c>
+      <c r="B56" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>352</v>
+      </c>
+      <c r="B57" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3618,13 +4454,13 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3638,7 +4474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -3652,7 +4488,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3666,7 +4502,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3680,7 +4516,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3694,7 +4530,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3708,7 +4544,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -3722,7 +4558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -3736,7 +4572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>305</v>
       </c>
@@ -3750,7 +4586,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -3764,7 +4600,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -3778,7 +4614,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -3792,7 +4628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -3806,7 +4642,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>308</v>
       </c>
@@ -3820,7 +4656,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>310</v>
       </c>
@@ -3834,7 +4670,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -3848,7 +4684,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -3862,7 +4698,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>312</v>
       </c>
@@ -3876,7 +4712,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>153</v>
       </c>
@@ -3890,7 +4726,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -3904,7 +4740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>155</v>
       </c>
@@ -3918,7 +4754,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>157</v>
       </c>
@@ -3932,7 +4768,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -3946,7 +4782,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>313</v>
       </c>
@@ -3960,7 +4796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -3974,7 +4810,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -3988,7 +4824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>181</v>
       </c>
@@ -4002,7 +4838,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>186</v>
       </c>
@@ -4016,7 +4852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>179</v>
       </c>
@@ -4030,7 +4866,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>243</v>
       </c>
@@ -4044,7 +4880,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>237</v>
       </c>
@@ -4058,7 +4894,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>241</v>
       </c>
@@ -4072,7 +4908,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -4099,13 +4935,13 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4119,7 +4955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4133,7 +4969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -4147,7 +4983,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4161,7 +4997,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>314</v>
       </c>
@@ -4175,7 +5011,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -4189,7 +5025,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -4203,7 +5039,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>316</v>
       </c>
@@ -4217,7 +5053,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -4231,7 +5067,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -4245,7 +5081,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>318</v>
       </c>
@@ -4259,7 +5095,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -4273,7 +5109,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -4287,7 +5123,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -4301,7 +5137,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>320</v>
       </c>
@@ -4315,7 +5151,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -4329,7 +5165,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>166</v>
       </c>
@@ -4343,7 +5179,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -4357,7 +5193,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>322</v>
       </c>
@@ -4371,7 +5207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>323</v>
       </c>
@@ -4385,7 +5221,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>227</v>
       </c>
@@ -4399,7 +5235,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>224</v>
       </c>
@@ -4413,7 +5249,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -4427,7 +5263,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>232</v>
       </c>
@@ -4451,16 +5287,16 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4474,7 +5310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -4488,7 +5324,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -4502,7 +5338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -4516,7 +5352,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -4530,7 +5366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>325</v>
       </c>
@@ -4544,7 +5380,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4558,7 +5394,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>326</v>
       </c>
@@ -4572,7 +5408,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4586,7 +5422,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4600,7 +5436,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -4614,7 +5450,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4628,7 +5464,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -4642,7 +5478,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>328</v>
       </c>
@@ -4656,7 +5492,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -4670,7 +5506,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -4684,7 +5520,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -4698,7 +5534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>330</v>
       </c>
@@ -4712,7 +5548,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -4726,7 +5562,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -4740,7 +5576,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -4754,7 +5590,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -4768,7 +5604,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -4782,7 +5618,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -4796,7 +5632,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>169</v>
       </c>
@@ -4810,7 +5646,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>173</v>
       </c>
@@ -4824,7 +5660,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>178</v>
       </c>
@@ -4838,7 +5674,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -4852,7 +5688,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -4866,7 +5702,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>175</v>
       </c>
@@ -4880,7 +5716,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>218</v>
       </c>
@@ -4894,7 +5730,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>214</v>
       </c>
@@ -4908,7 +5744,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>213</v>
       </c>
@@ -4922,7 +5758,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>217</v>
       </c>
@@ -4936,7 +5772,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>212</v>
       </c>
@@ -4950,7 +5786,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>222</v>
       </c>
@@ -4964,7 +5800,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>338</v>
       </c>
@@ -4978,7 +5814,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>231</v>
       </c>
@@ -4992,7 +5828,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>264</v>
       </c>
@@ -5006,7 +5842,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>263</v>
       </c>
@@ -5020,7 +5856,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>260</v>
       </c>
@@ -5034,7 +5870,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>255</v>
       </c>
@@ -5048,7 +5884,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>257</v>
       </c>
@@ -5062,7 +5898,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>258</v>
       </c>
@@ -5076,7 +5912,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>340</v>
       </c>
@@ -5103,13 +5939,13 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5123,7 +5959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -5137,7 +5973,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -5151,7 +5987,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5165,7 +6001,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>302</v>
       </c>
@@ -5179,7 +6015,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5193,7 +6029,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5207,7 +6043,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5221,7 +6057,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5235,7 +6071,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -5249,7 +6085,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -5263,7 +6099,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>307</v>
       </c>
@@ -5277,7 +6113,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -5291,7 +6127,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -5305,7 +6141,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -5319,7 +6155,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -5333,7 +6169,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>342</v>
       </c>
@@ -5347,7 +6183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -5361,7 +6197,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -5375,7 +6211,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -5389,7 +6225,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>344</v>
       </c>
@@ -5403,7 +6239,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -5417,7 +6253,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -5431,7 +6267,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -5445,7 +6281,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -5459,7 +6295,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -5473,7 +6309,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -5487,7 +6323,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -5501,7 +6337,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -5515,7 +6351,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -5529,7 +6365,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -5543,7 +6379,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -5557,7 +6393,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -5571,7 +6407,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>128</v>
       </c>
@@ -5585,7 +6421,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>132</v>
       </c>
@@ -5599,7 +6435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>345</v>
       </c>
@@ -5613,7 +6449,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>346</v>
       </c>
@@ -5627,7 +6463,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -5641,7 +6477,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -5655,7 +6491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -5669,7 +6505,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -5683,7 +6519,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -5697,7 +6533,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -5711,7 +6547,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>197</v>
       </c>
@@ -5725,7 +6561,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>190</v>
       </c>
@@ -5739,7 +6575,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>200</v>
       </c>
@@ -5753,7 +6589,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -5767,7 +6603,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -5781,7 +6617,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>206</v>
       </c>
@@ -5795,7 +6631,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>348</v>
       </c>
@@ -5809,7 +6645,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>208</v>
       </c>
@@ -5823,7 +6659,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>349</v>
       </c>
@@ -5837,7 +6673,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>202</v>
       </c>
@@ -5851,7 +6687,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>210</v>
       </c>
@@ -5865,7 +6701,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>252</v>
       </c>
@@ -5879,7 +6715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>251</v>
       </c>
@@ -5893,7 +6729,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>248</v>
       </c>
@@ -5907,7 +6743,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>246</v>
       </c>
@@ -5921,7 +6757,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>350</v>
       </c>
@@ -5935,7 +6771,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>267</v>
       </c>
@@ -5949,7 +6785,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>277</v>
       </c>
@@ -5963,7 +6799,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>280</v>
       </c>
@@ -5977,7 +6813,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>271</v>
       </c>
@@ -5991,7 +6827,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>270</v>
       </c>
@@ -6005,7 +6841,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>275</v>
       </c>
@@ -6019,7 +6855,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>301</v>
       </c>
@@ -6033,7 +6869,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>284</v>
       </c>
@@ -6047,7 +6883,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -6061,7 +6897,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>286</v>
       </c>
@@ -6075,7 +6911,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>289</v>
       </c>
@@ -6089,7 +6925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>292</v>
       </c>
@@ -6103,7 +6939,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>290</v>
       </c>
@@ -6117,7 +6953,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>294</v>
       </c>
@@ -6141,12 +6977,12 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6160,7 +6996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -6174,7 +7010,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>318</v>
       </c>
@@ -6188,7 +7024,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -6202,7 +7038,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -6216,7 +7052,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -6230,7 +7066,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -6253,17 +7089,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CA954D-4685-E747-BEF8-201635681934}">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="102" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6277,7 +7113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -6291,7 +7127,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -6305,7 +7141,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -6319,7 +7155,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -6333,7 +7169,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6347,7 +7183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -6361,7 +7197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>314</v>
       </c>
@@ -6375,7 +7211,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -6389,7 +7225,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>354</v>
       </c>
@@ -6403,7 +7239,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -6417,7 +7253,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -6431,7 +7267,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -6445,7 +7281,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -6459,7 +7295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6473,7 +7309,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -6487,7 +7323,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -6501,7 +7337,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -6515,7 +7351,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>326</v>
       </c>
@@ -6529,7 +7365,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -6543,7 +7379,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -6557,7 +7393,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -6571,7 +7407,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>225</v>
       </c>
@@ -6585,7 +7421,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -6599,7 +7435,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>221</v>
       </c>
@@ -6613,7 +7449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>229</v>
       </c>
@@ -6627,7 +7463,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -6641,7 +7477,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>233</v>
       </c>
@@ -6655,7 +7491,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -6669,7 +7505,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>228</v>
       </c>
@@ -6683,7 +7519,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>341</v>
       </c>
@@ -6697,7 +7533,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>307</v>
       </c>
@@ -6711,7 +7547,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -6725,7 +7561,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -6739,7 +7575,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -6753,7 +7589,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -6767,7 +7603,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -6781,7 +7617,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -6795,7 +7631,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -6809,7 +7645,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -6823,7 +7659,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -6837,7 +7673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>333</v>
       </c>
@@ -6851,7 +7687,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>332</v>
       </c>
@@ -6865,7 +7701,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>317</v>
       </c>
@@ -6879,7 +7715,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>311</v>
       </c>
@@ -6893,7 +7729,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -6907,7 +7743,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>344</v>
       </c>
@@ -6921,7 +7757,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -6935,7 +7771,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -6949,7 +7785,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -6963,7 +7799,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -6977,7 +7813,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -6991,7 +7827,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -7005,7 +7841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>299</v>
       </c>
@@ -7019,7 +7855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -7033,7 +7869,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -7047,7 +7883,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -7061,7 +7897,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -7075,7 +7911,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -7089,7 +7925,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -7103,7 +7939,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -7117,7 +7953,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>132</v>
       </c>
@@ -7131,7 +7967,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -7145,7 +7981,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -7159,7 +7995,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -7173,7 +8009,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -7187,7 +8023,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>355</v>
       </c>
@@ -7201,7 +8037,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -7215,7 +8051,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -7229,7 +8065,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -7243,7 +8079,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -7257,7 +8093,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>319</v>
       </c>
@@ -7271,7 +8107,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>150</v>
       </c>
@@ -7285,7 +8121,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>154</v>
       </c>
@@ -7299,7 +8135,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>151</v>
       </c>
@@ -7313,7 +8149,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -7327,7 +8163,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>156</v>
       </c>
@@ -7341,7 +8177,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -7355,7 +8191,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>153</v>
       </c>
@@ -7369,7 +8205,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -7383,7 +8219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -7397,7 +8233,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -7411,7 +8247,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>170</v>
       </c>
@@ -7425,7 +8261,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -7439,7 +8275,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>345</v>
       </c>
@@ -7453,7 +8289,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>139</v>
       </c>
@@ -7467,7 +8303,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>334</v>
       </c>
@@ -7481,7 +8317,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -7495,7 +8331,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>335</v>
       </c>
@@ -7509,7 +8345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>188</v>
       </c>
@@ -7523,7 +8359,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>187</v>
       </c>
@@ -7537,7 +8373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>184</v>
       </c>
@@ -7551,7 +8387,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>186</v>
       </c>
@@ -7565,7 +8401,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>183</v>
       </c>
@@ -7579,7 +8415,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>198</v>
       </c>
@@ -7593,7 +8429,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>192</v>
       </c>
@@ -7607,7 +8443,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>200</v>
       </c>
@@ -7621,7 +8457,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>190</v>
       </c>
@@ -7635,7 +8471,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -7649,7 +8485,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>191</v>
       </c>
@@ -7663,7 +8499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>206</v>
       </c>
@@ -7677,7 +8513,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>348</v>
       </c>
@@ -7691,7 +8527,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>349</v>
       </c>
@@ -7705,7 +8541,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>210</v>
       </c>
@@ -7719,7 +8555,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -7733,7 +8569,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>215</v>
       </c>
@@ -7747,7 +8583,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>356</v>
       </c>
@@ -7761,7 +8597,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>216</v>
       </c>
@@ -7775,7 +8611,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>219</v>
       </c>
@@ -7789,7 +8625,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>211</v>
       </c>
@@ -7803,7 +8639,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>224</v>
       </c>
@@ -7817,7 +8653,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>234</v>
       </c>
@@ -7831,7 +8667,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>238</v>
       </c>
@@ -7845,7 +8681,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>240</v>
       </c>
@@ -7859,7 +8695,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>237</v>
       </c>
@@ -7873,7 +8709,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>242</v>
       </c>
@@ -7887,7 +8723,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>244</v>
       </c>
@@ -7901,7 +8737,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>246</v>
       </c>
@@ -7915,7 +8751,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>248</v>
       </c>
@@ -7929,7 +8765,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>247</v>
       </c>
@@ -7943,7 +8779,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>250</v>
       </c>
@@ -7957,7 +8793,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>252</v>
       </c>
@@ -7971,7 +8807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>260</v>
       </c>
@@ -7985,7 +8821,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>265</v>
       </c>
@@ -7999,7 +8835,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>255</v>
       </c>
@@ -8013,7 +8849,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>259</v>
       </c>
@@ -8027,7 +8863,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>339</v>
       </c>
@@ -8041,7 +8877,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>269</v>
       </c>
@@ -8055,7 +8891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>350</v>
       </c>
@@ -8069,7 +8905,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>357</v>
       </c>
@@ -8083,7 +8919,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>267</v>
       </c>
@@ -8097,7 +8933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>277</v>
       </c>
@@ -8111,7 +8947,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>301</v>
       </c>
@@ -8125,7 +8961,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>270</v>
       </c>
@@ -8139,7 +8975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>271</v>
       </c>
@@ -8153,7 +8989,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>280</v>
       </c>
@@ -8167,7 +9003,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>275</v>
       </c>
@@ -8181,7 +9017,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>284</v>
       </c>
@@ -8195,7 +9031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>288</v>
       </c>
@@ -8209,7 +9045,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>283</v>
       </c>
@@ -8223,7 +9059,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>282</v>
       </c>
@@ -8237,7 +9073,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>290</v>
       </c>
@@ -8251,7 +9087,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>294</v>
       </c>
@@ -8265,7 +9101,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>292</v>
       </c>
@@ -8279,7 +9115,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>298</v>
       </c>
@@ -8291,6 +9127,534 @@
       </c>
       <c r="D145">
         <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87202867-21FE-E34C-AE97-6D2DA35348EE}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>77</v>
+      </c>
+      <c r="D2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5">
+        <v>78</v>
+      </c>
+      <c r="D5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>69</v>
+      </c>
+      <c r="D7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>88</v>
+      </c>
+      <c r="D9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12">
+        <v>67</v>
+      </c>
+      <c r="D12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13">
+        <v>89</v>
+      </c>
+      <c r="D13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15">
+        <v>87</v>
+      </c>
+      <c r="D15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16">
+        <v>62</v>
+      </c>
+      <c r="D16">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17">
+        <v>68</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2BFDFB-F359-1742-9D11-EC2EF5F96EC7}">
+  <dimension ref="H1:K13"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="H1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:11">
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="8:11">
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2">
+        <v>83</v>
+      </c>
+      <c r="K2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="8:11">
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3">
+        <v>65</v>
+      </c>
+      <c r="K3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="8:11">
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4">
+        <v>77</v>
+      </c>
+      <c r="K4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="8:11">
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5">
+        <v>77</v>
+      </c>
+      <c r="K5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="8:11">
+      <c r="H6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6">
+        <v>57</v>
+      </c>
+      <c r="K6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="8:11">
+      <c r="H7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7">
+        <v>72</v>
+      </c>
+      <c r="K7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="8:11">
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8">
+        <v>91</v>
+      </c>
+      <c r="K8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="8:11">
+      <c r="H9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9">
+        <v>82</v>
+      </c>
+      <c r="K9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="8:11">
+      <c r="H10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I10" t="s">
+        <v>236</v>
+      </c>
+      <c r="J10">
+        <v>62</v>
+      </c>
+      <c r="K10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="8:11">
+      <c r="H11" t="s">
+        <v>242</v>
+      </c>
+      <c r="I11" t="s">
+        <v>235</v>
+      </c>
+      <c r="J11">
+        <v>65</v>
+      </c>
+      <c r="K11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="8:11">
+      <c r="H12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I12" t="s">
+        <v>241</v>
+      </c>
+      <c r="J12">
+        <v>79</v>
+      </c>
+      <c r="K12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="8:11">
+      <c r="H13" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" t="s">
+        <v>239</v>
+      </c>
+      <c r="J13">
+        <v>65</v>
+      </c>
+      <c r="K13">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/workingdata/error_predics.xlsx
+++ b/workingdata/error_predics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericshannon/Documents/ncaa_predictions/workingdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A03266-B00E-0143-90CC-AEBFD94FA899}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1ACBA5-57B9-B84D-8587-1B415B067EB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="460" windowWidth="10000" windowHeight="14820" firstSheet="7" activeTab="10" xr2:uid="{3631A22F-5DE8-4F4D-9E8A-2705B43EDF70}"/>
+    <workbookView xWindow="7860" yWindow="460" windowWidth="10000" windowHeight="14820" firstSheet="7" activeTab="11" xr2:uid="{3631A22F-5DE8-4F4D-9E8A-2705B43EDF70}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan19(61pct)" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Jan28" sheetId="10" r:id="rId9"/>
     <sheet name="Jan29" sheetId="11" r:id="rId10"/>
     <sheet name="Jan30" sheetId="12" r:id="rId11"/>
+    <sheet name="Jan31" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="365">
   <si>
     <t>Home</t>
   </si>
@@ -1129,13 +1130,7 @@
     <t>Santa Cruz</t>
   </si>
   <si>
-    <t>Albany</t>
-  </si>
-  <si>
-    <t>Massachusettes</t>
-  </si>
-  <si>
-    <t>Norwestern State</t>
+    <t>Missorui-Kansas City</t>
   </si>
 </sst>
 </file>
@@ -3969,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CCC3C5-57D9-1443-B85B-B58636A472C8}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4000,6 +3995,12 @@
       <c r="B2" t="s">
         <v>28</v>
       </c>
+      <c r="C2">
+        <v>79</v>
+      </c>
+      <c r="D2">
+        <v>95</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -4008,6 +4009,12 @@
       <c r="B3" t="s">
         <v>31</v>
       </c>
+      <c r="C3">
+        <v>83</v>
+      </c>
+      <c r="D3">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -4016,6 +4023,12 @@
       <c r="B4" t="s">
         <v>302</v>
       </c>
+      <c r="C4">
+        <v>82</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -4024,6 +4037,12 @@
       <c r="B5" t="s">
         <v>40</v>
       </c>
+      <c r="C5">
+        <v>82</v>
+      </c>
+      <c r="D5">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -4032,6 +4051,12 @@
       <c r="B6" t="s">
         <v>354</v>
       </c>
+      <c r="C6">
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -4040,6 +4065,12 @@
       <c r="B7" t="s">
         <v>52</v>
       </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -4048,13 +4079,25 @@
       <c r="B8" t="s">
         <v>51</v>
       </c>
+      <c r="C8">
+        <v>78</v>
+      </c>
+      <c r="D8">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>364</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>325</v>
+      </c>
+      <c r="C9">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4064,6 +4107,12 @@
       <c r="B10" t="s">
         <v>50</v>
       </c>
+      <c r="C10">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -4072,6 +4121,12 @@
       <c r="B11" t="s">
         <v>329</v>
       </c>
+      <c r="C11">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -4080,13 +4135,25 @@
       <c r="B12" t="s">
         <v>326</v>
       </c>
+      <c r="C12">
+        <v>61</v>
+      </c>
+      <c r="D12">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
+      </c>
+      <c r="C13">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4096,6 +4163,12 @@
       <c r="B14" t="s">
         <v>328</v>
       </c>
+      <c r="C14">
+        <v>84</v>
+      </c>
+      <c r="D14">
+        <v>81</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -4104,6 +4177,12 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
+      <c r="C15">
+        <v>57</v>
+      </c>
+      <c r="D15">
+        <v>72</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -4112,333 +4191,1050 @@
       <c r="B16" t="s">
         <v>17</v>
       </c>
+      <c r="C16">
+        <v>64</v>
+      </c>
+      <c r="D16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18">
+        <v>69</v>
+      </c>
+      <c r="D18">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>76</v>
+      </c>
+      <c r="D19">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20">
+        <v>86</v>
+      </c>
+      <c r="D20">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22">
+        <v>83</v>
+      </c>
+      <c r="D22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>342</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24">
+        <v>96</v>
+      </c>
+      <c r="D24">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26">
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27">
+        <v>84</v>
+      </c>
+      <c r="D27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28">
+        <v>58</v>
+      </c>
+      <c r="D28">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29">
+        <v>75</v>
+      </c>
+      <c r="D29">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30">
+        <v>71</v>
+      </c>
+      <c r="D30">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31">
+        <v>65</v>
+      </c>
+      <c r="D31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32">
+        <v>73</v>
+      </c>
+      <c r="D32">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" t="s">
+        <v>322</v>
+      </c>
+      <c r="C34">
+        <v>51</v>
+      </c>
+      <c r="D34">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35">
+        <v>70</v>
+      </c>
+      <c r="D35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36">
+        <v>81</v>
+      </c>
+      <c r="D36">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37">
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" t="s">
+        <v>335</v>
+      </c>
+      <c r="C38">
+        <v>69</v>
+      </c>
+      <c r="D38">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C39">
+        <v>73</v>
+      </c>
+      <c r="D39">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40">
+        <v>87</v>
+      </c>
+      <c r="D40">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41">
+        <v>62</v>
+      </c>
+      <c r="D41">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42">
+        <v>54</v>
+      </c>
+      <c r="D42">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43">
+        <v>57</v>
+      </c>
+      <c r="D43">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45">
+        <v>74</v>
+      </c>
+      <c r="D45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46">
+        <v>93</v>
+      </c>
+      <c r="D46">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47">
+        <v>72</v>
+      </c>
+      <c r="D47">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48">
+        <v>86</v>
+      </c>
+      <c r="D48">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49">
+        <v>58</v>
+      </c>
+      <c r="D49">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" t="s">
+        <v>256</v>
+      </c>
+      <c r="C50">
+        <v>99</v>
+      </c>
+      <c r="D50">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51">
+        <v>71</v>
+      </c>
+      <c r="D51">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>265</v>
+      </c>
+      <c r="B52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52">
+        <v>96</v>
+      </c>
+      <c r="D52">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" t="s">
+        <v>260</v>
+      </c>
+      <c r="C53">
+        <v>64</v>
+      </c>
+      <c r="D53">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>339</v>
+      </c>
+      <c r="B54" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54">
+        <v>90</v>
+      </c>
+      <c r="D54">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55">
+        <v>62</v>
+      </c>
+      <c r="D55">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>340</v>
+      </c>
+      <c r="B56" t="s">
+        <v>268</v>
+      </c>
+      <c r="C56">
+        <v>71</v>
+      </c>
+      <c r="D56">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>352</v>
+      </c>
+      <c r="B57" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57">
+        <v>62</v>
+      </c>
+      <c r="D57">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FF26CC-0240-CF4F-99D7-4C2159E94C9C}">
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>341</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>316</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>305</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>342</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>353</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="B28" t="s">
-        <v>311</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s">
-        <v>322</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>334</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s">
-        <v>335</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
-        <v>336</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B41" t="s">
-        <v>206</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="B43" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B47" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>226</v>
+        <v>351</v>
       </c>
       <c r="B48" t="s">
-        <v>229</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="B51" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>265</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>366</v>
+        <v>289</v>
       </c>
       <c r="B53" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="B55" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>340</v>
-      </c>
-      <c r="B56" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>352</v>
-      </c>
-      <c r="B57" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
